--- a/biology/Botanique/Crenea_maritima/Crenea_maritima.xlsx
+++ b/biology/Botanique/Crenea_maritima/Crenea_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crenea maritima est une espèce de plante herbacée néotropicale, appartenant à la famille des Lythraceae. Il s'agit de l'espèce type du genre Crenea Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crenea maritima est une espèce déterminante ZNIEFF en Guyane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crenea maritima est une espèce déterminante ZNIEFF en Guyane.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crenea maritima est une herbacée ou un sous-arbrisseau parfois ligneux, haut de 17 à 47(−100) cm, ramifié depuis la base ou non.
 Les tiges sont quadrangulaires, souvent légèrement (à 4 ailes), raides, dressées, et s'enracinant parfois à partir des nœuds inférieurs.
@@ -559,7 +575,7 @@
 On compte 12–15 étamines longues de 1,75–2,5 mm, insérées à environ 1,5-2 mm au-dessus de la base du tube du calice en une seule rangée, exserte.
 Les filets sont blancs, longs d'environ 4 mm, et les anthères jaunes, basifixes, longues d'environ 3 mm, à thèques divergentes.
 L'ovaire est long d'environ 0.2.5 mm, avec un style blanc, long d'environ 3,5 mm, et le stigmates rouge.
-Le fruit est une capsule aiguë, mesurant 5–8 mm de diamètre, de couleur vert-violet, à 5 loges, contenant de nombreuses graines longues de 2-2,5 mm[3],[4],[5].
+Le fruit est une capsule aiguë, mesurant 5–8 mm de diamètre, de couleur vert-violet, à 5 loges, contenant de nombreuses graines longues de 2-2,5 mm.
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crenea maritima est présent de Trinidad au Brésil, en passant par le Venezuela, le Guyana, le Suriname, et la Guyane[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crenea maritima est présent de Trinidad au Brésil, en passant par le Venezuela, le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crenea maritima pousse en bord de mer et fait partie de la flore herbacée des côtes vaseuses, des mangroves côtières[3]. On le trouve principalement dans les mangroves et les estuaires, près du niveau de la mer jusqu'à 50 m d'altitude[4].
-Il fleurit en juin en Guyane[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crenea maritima pousse en bord de mer et fait partie de la flore herbacée des côtes vaseuses, des mangroves côtières. On le trouve principalement dans les mangroves et les estuaires, près du niveau de la mer jusqu'à 50 m d'altitude.
+Il fleurit en juin en Guyane.
 </t>
         </is>
       </c>
@@ -651,9 +671,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « CRENEA maritima. (Tabula 209.) 
 Planta caules plures, nodofos, tetragono:, angulis alatis, bipedales, c radice emittens. Folia ovata, glabra, oppoſita, ſubſeſſilia. Flores corymboſi, axillares, pedunculaci, pédiculis ſingulis ad baſim squamula munitis, &amp; in medio bracteis duabus. Stamina, in flore expanſo, versus unum latus declinanc.
 Florebat Junio.
